--- a/writing/S'15 LSTM/fig.xlsx
+++ b/writing/S'15 LSTM/fig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>deep-3</t>
   </si>
@@ -55,6 +56,12 @@
   </si>
   <si>
     <t>50d TreeRNN 3</t>
+  </si>
+  <si>
+    <t>From Sat morn, pass 100000</t>
+  </si>
+  <si>
+    <t>TreeLSTM</t>
   </si>
 </sst>
 </file>
@@ -125,8 +132,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,7 +209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -231,6 +242,8 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -263,6 +276,8 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,6 +291,3325 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0675957183663948"/>
+          <c:y val="0.087248322147651"/>
+          <c:w val="0.252269773169278"/>
+          <c:h val="0.663652340039264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="3366FF"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.593</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNTN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2131683704"/>
+        <c:axId val="-2131701976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2131683704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of longer expression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.132877634571379"/>
+              <c:y val="0.875513463156975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2131701976"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2131701976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00563944512788156"/>
+              <c:y val="0.266676941218722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131683704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0675957183663948"/>
+          <c:y val="0.087248322147651"/>
+          <c:w val="0.252269773169278"/>
+          <c:h val="0.663652340039264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNN 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="3366FF"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67253</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d RNN 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d RNN 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$70:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$70:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2140230872"/>
+        <c:axId val="-2141420776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2140230872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of longer expression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.132877634571379"/>
+              <c:y val="0.875513463156975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2141420776"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141420776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00563944512788156"/>
+              <c:y val="0.266676941218722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140230872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.138847862439015"/>
+          <c:h val="0.493162483375905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0675957183663948"/>
+          <c:y val="0.087248322147651"/>
+          <c:w val="0.252269773169278"/>
+          <c:h val="0.663652340039264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="3366FF"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$37:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNTN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$37:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.88462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$37:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$37:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2130196520"/>
+        <c:axId val="-2132186360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2130196520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of longer expression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.132877634571379"/>
+              <c:y val="0.875513463156975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2132186360"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2132186360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00563944512788156"/>
+              <c:y val="0.266676941218722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130196520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.138267877871314"/>
+          <c:h val="0.326055507985789"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0675957183663948"/>
+          <c:y val="0.087248322147651"/>
+          <c:w val="0.252269773169278"/>
+          <c:h val="0.663652340039264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="3366FF"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$54:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$54:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$54:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$54:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2140521864"/>
+        <c:axId val="-2130741480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2140521864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of longer expression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.132877634571379"/>
+              <c:y val="0.875513463156975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2130741480"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2130741480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00563944512788156"/>
+              <c:y val="0.266676941218722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140521864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.138847862439015"/>
+          <c:h val="0.493162483375905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0675957183663948"/>
+          <c:y val="0.087248322147651"/>
+          <c:w val="0.252269773169278"/>
+          <c:h val="0.663652340039264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="3366FF"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$70:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$70:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$70:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$70:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2146913464"/>
+        <c:axId val="-2139588152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2146913464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of longer expression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.132877634571379"/>
+              <c:y val="0.875513463156975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2139588152"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139588152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00563944512788156"/>
+              <c:y val="0.266676941218722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146913464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.138847862439015"/>
+          <c:h val="0.493162483375905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0675957183663948"/>
+          <c:y val="0.087248322147651"/>
+          <c:w val="0.252269773169278"/>
+          <c:h val="0.663652340039264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="3366FF"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$37:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNTN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:miter lim="800000"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$37:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.88462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$37:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$37:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2129889288"/>
+        <c:axId val="-2132526824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2129889288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of longer expression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.132877634571379"/>
+              <c:y val="0.875513463156975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2132526824"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2132526824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00563944512788156"/>
+              <c:y val="0.266676941218722"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2129889288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.137560865586801"/>
+          <c:h val="0.323665033789576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:latin typeface="Times"/>
+          <a:cs typeface="Times"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -704,7 +4038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1133,7 +4467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1576,7 +4910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2249,673 +5583,172 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0675957183663948"/>
-          <c:y val="0.087248322147651"/>
-          <c:w val="0.252269773169278"/>
-          <c:h val="0.663652340039264"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d TreeRNN 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="3366FF"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="3366FF"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$70:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99242</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74852</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6944</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67253</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61883</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56949</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.50459</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d RNN 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:miter lim="800000"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$70:$C$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9618</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8871</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87363</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80556</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7768</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7728</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7461</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d RNN 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="008000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$70:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97803</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89815</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90508</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.84404</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$70:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2140230872"/>
-        <c:axId val="-2141420776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2140230872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size of longer expression</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.132877634571379"/>
-              <c:y val="0.875513463156975"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="-2141420776"/>
-        <c:crossesAt val="0.5"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2141420776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00563944512788156"/>
-              <c:y val="0.266676941218722"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140230872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.138847862439015"/>
-          <c:h val="0.493162483375905"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:latin typeface="Times"/>
-          <a:cs typeface="Times"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>465666</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>445347</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474981</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>462281</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>805181</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>263314</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3400,13 +6233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3428,19 +6258,28 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="16">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.93589999999999995</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
@@ -3451,14 +6290,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
+        <v>0.98736999999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.9798</v>
+      </c>
+      <c r="D3">
         <v>0.99241999999999997</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.98485</v>
-      </c>
-      <c r="D3">
-        <v>0.98485</v>
+      <c r="E3">
+        <v>0.9899</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
@@ -3469,14 +6311,17 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.95132000000000005</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.97894999999999999</v>
+      <c r="B4">
+        <v>0.91447000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.95262999999999998</v>
       </c>
       <c r="D4">
-        <v>0.93684000000000001</v>
+        <v>0.94604999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.95921000000000001</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
@@ -3487,14 +6332,17 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.86341999999999997</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.93123</v>
+      <c r="B5">
+        <v>0.84336</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.89015999999999995</v>
       </c>
       <c r="D5">
-        <v>0.75166999999999995</v>
+        <v>0.77746000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.88920999999999994</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
@@ -3505,14 +6353,17 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.79125000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.89024999999999999</v>
+      <c r="B6">
+        <v>0.78510999999999997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.82655000000000001</v>
       </c>
       <c r="D6">
-        <v>0.65541000000000005</v>
+        <v>0.64927000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.83269000000000004</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
@@ -3523,14 +6374,17 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.74851999999999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.86128000000000005</v>
+      <c r="B7">
+        <v>0.72774000000000005</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.77447999999999995</v>
       </c>
       <c r="D7">
-        <v>0.57121999999999995</v>
+        <v>0.54451000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.78337999999999997</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
@@ -3541,14 +6395,17 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.69440000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.80730000000000002</v>
+      <c r="B8">
+        <v>0.71647000000000005</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.73768999999999996</v>
       </c>
       <c r="D8">
-        <v>0.50763999999999998</v>
+        <v>0.53141000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.76910000000000001</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -3559,14 +6416,17 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.67252999999999996</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.78242</v>
+      <c r="B9">
+        <v>0.65275000000000005</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.66044000000000003</v>
       </c>
       <c r="D9">
-        <v>0.47253000000000001</v>
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.70659000000000005</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
@@ -3577,14 +6437,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.61882999999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.75771999999999995</v>
+      <c r="B10">
+        <v>0.62963000000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.63271999999999995</v>
       </c>
       <c r="D10">
-        <v>0.45988000000000001</v>
+        <v>0.42901</v>
+      </c>
+      <c r="E10">
+        <v>0.66666999999999998</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
@@ -3595,14 +6458,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.55798999999999999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.75055000000000005</v>
+      <c r="B11">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.60612999999999995</v>
       </c>
       <c r="D11">
-        <v>0.42670000000000002</v>
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.66520000000000001</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
@@ -3613,14 +6479,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.56949000000000005</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.70508000000000004</v>
+      <c r="B12">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.57965999999999995</v>
       </c>
       <c r="D12">
-        <v>0.42030000000000001</v>
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
@@ -3631,14 +6500,17 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.50458999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.66666999999999998</v>
+      <c r="B13">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.59326999999999996</v>
       </c>
       <c r="D13">
-        <v>0.3639</v>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.59630000000000005</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
@@ -3649,6 +6521,829 @@
       <c r="H14" s="1"/>
       <c r="N14" s="1"/>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.99241999999999997</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.98231999999999997</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.96184000000000003</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.96447000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.98158000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.91881999999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.91691</v>
+      </c>
+      <c r="E23">
+        <v>0.95415000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.88565000000000005</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.87951000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.91557999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.83753999999999995</v>
+      </c>
+      <c r="E25">
+        <v>0.86424000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.81579000000000002</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="E26">
+        <v>0.85314000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.76483999999999996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.76263999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.81647999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.73611000000000004</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.73611000000000004</v>
+      </c>
+      <c r="E28">
+        <v>0.75153999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="E29">
+        <v>0.78993000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.71525000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="C31">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="E31">
+        <v>0.72170999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.88461999999999996</v>
+      </c>
+      <c r="D37">
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.98736999999999997</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.90656999999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.97221999999999997</v>
+      </c>
+      <c r="E38">
+        <v>0.99746999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.97894999999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.83552999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.96184000000000003</v>
+      </c>
+      <c r="E39">
+        <v>0.99604999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.95128999999999997</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.81089</v>
+      </c>
+      <c r="D40">
+        <v>0.91786000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.98663000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.92632000000000003</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.79586000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.86722999999999995</v>
+      </c>
+      <c r="E41">
+        <v>0.96777000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.90578999999999998</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.77373999999999998</v>
+      </c>
+      <c r="D42">
+        <v>0.81008999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.94213999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.89049</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.78183000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.94057999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.85385</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.72526999999999997</v>
+      </c>
+      <c r="D44">
+        <v>0.72526999999999997</v>
+      </c>
+      <c r="E44">
+        <v>0.90549000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.83025000000000004</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.70833000000000002</v>
+      </c>
+      <c r="D45">
+        <v>0.65278000000000003</v>
+      </c>
+      <c r="E45">
+        <v>0.88580000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.82276000000000005</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D46">
+        <v>0.64551000000000003</v>
+      </c>
+      <c r="E46">
+        <v>0.86209999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.79322000000000004</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="D47">
+        <v>0.57626999999999995</v>
+      </c>
+      <c r="E47">
+        <v>0.84740000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.81345999999999996</v>
+      </c>
+      <c r="C48">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.51375999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.8226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" ht="16">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="16">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" ht="16">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="16">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="16">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="16">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="16">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="16">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="16">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="16">
+      <c r="A80">
+        <v>11</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="16">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="52" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="16">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99241999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.98485</v>
+      </c>
+      <c r="D3">
+        <v>0.98485</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.95132000000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.97894999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.93684000000000001</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.86341999999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.93123</v>
+      </c>
+      <c r="D5">
+        <v>0.75166999999999995</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="16">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.79125000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.89024999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.65541000000000005</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="16">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.74851999999999996</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.86128000000000005</v>
+      </c>
+      <c r="D7">
+        <v>0.57121999999999995</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="16">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.50763999999999998</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="16">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.67252999999999996</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.78242</v>
+      </c>
+      <c r="D9">
+        <v>0.47253000000000001</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="16">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.61882999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.75771999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.45988000000000001</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="16">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.55798999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.75055000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="16">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.56949000000000005</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.70508000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="16">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.50458999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.3639</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="16">
+      <c r="H14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>1</v>
@@ -4374,7 +8069,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="35" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="52" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/writing/S'15 LSTM/fig.xlsx
+++ b/writing/S'15 LSTM/fig.xlsx
@@ -61,7 +61,7 @@
     <t>From Sat morn, pass 100000</t>
   </si>
   <si>
-    <t>TreeLSTM</t>
+    <t>50d TreeLSTM</t>
   </si>
 </sst>
 </file>
@@ -132,8 +132,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,7 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -244,6 +246,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -278,6 +281,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -325,7 +329,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1</c:f>
+              <c:f>'Sheet1 (2)'!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -357,7 +361,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$2:$B$13</c:f>
+              <c:f>'Sheet1 (2)'!$B$37:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -368,34 +372,34 @@
                   <c:v>0.98737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91447</c:v>
+                  <c:v>0.97895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84336</c:v>
+                  <c:v>0.95129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78511</c:v>
+                  <c:v>0.92632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72774</c:v>
+                  <c:v>0.90579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71647</c:v>
+                  <c:v>0.89049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65275</c:v>
+                  <c:v>0.85385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62963</c:v>
+                  <c:v>0.83025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.593</c:v>
+                  <c:v>0.82276</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4983</c:v>
+                  <c:v>0.79322</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5198</c:v>
+                  <c:v>0.81346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +411,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$1</c:f>
+              <c:f>'Sheet1 (2)'!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,45 +439,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$2:$C$13</c:f>
+              <c:f>'Sheet1 (2)'!$C$37:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.88462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9798</c:v>
+                  <c:v>0.90657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95263</c:v>
+                  <c:v>0.83553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89016</c:v>
+                  <c:v>0.81089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82655</c:v>
+                  <c:v>0.79586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77448</c:v>
+                  <c:v>0.77374</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73769</c:v>
+                  <c:v>0.7691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66044</c:v>
+                  <c:v>0.72527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63272</c:v>
+                  <c:v>0.70833</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60613</c:v>
+                  <c:v>0.663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57966</c:v>
+                  <c:v>0.6339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59327</c:v>
+                  <c:v>0.6513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,11 +489,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$1</c:f>
+              <c:f>'Sheet1 (2)'!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d LSTM</c:v>
+                  <c:v>50d TreeLSTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -516,7 +520,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$2:$D$13</c:f>
+              <c:f>'Sheet1 (2)'!$D$37:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -524,37 +528,37 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99242</c:v>
+                  <c:v>0.99747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94605</c:v>
+                  <c:v>0.99605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77746</c:v>
+                  <c:v>0.98663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64927</c:v>
+                  <c:v>0.96777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54451</c:v>
+                  <c:v>0.94214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53141</c:v>
+                  <c:v>0.94058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4989</c:v>
+                  <c:v>0.90549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42901</c:v>
+                  <c:v>0.8858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4004</c:v>
+                  <c:v>0.8621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4711</c:v>
+                  <c:v>0.8474</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.425</c:v>
+                  <c:v>0.8226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,56 +570,81 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$1</c:f>
+              <c:f>'Sheet1 (2)'!$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TreeLSTM</c:v>
+                  <c:v>50d LSTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$2:$E$13</c:f>
+              <c:f>'Sheet1 (2)'!$E$37:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.98718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9899</c:v>
+                  <c:v>0.97222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95921</c:v>
+                  <c:v>0.96184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88921</c:v>
+                  <c:v>0.91786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83269</c:v>
+                  <c:v>0.86723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78338</c:v>
+                  <c:v>0.81009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7691</c:v>
+                  <c:v>0.78183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70659</c:v>
+                  <c:v>0.72527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66667</c:v>
+                  <c:v>0.65278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6652</c:v>
+                  <c:v>0.64551</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5963</c:v>
+                  <c:v>0.51376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131683704"/>
-        <c:axId val="-2131701976"/>
+        <c:axId val="2118032968"/>
+        <c:axId val="2118041912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131683704"/>
+        <c:axId val="2118032968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2131701976"/>
+        <c:crossAx val="2118041912"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -698,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131701976"/>
+        <c:axId val="2118041912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -737,659 +766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131683704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:latin typeface="Times"/>
-          <a:cs typeface="Times"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0675957183663948"/>
-          <c:y val="0.087248322147651"/>
-          <c:w val="0.252269773169278"/>
-          <c:h val="0.663652340039264"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d TreeRNN 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="3366FF"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="3366FF"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$70:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99242</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86342</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74852</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6944</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67253</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61883</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56949</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.50459</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d RNN 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:miter lim="800000"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$70:$C$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9618</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8871</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87363</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80556</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7768</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7728</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7461</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d RNN 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="008000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$70:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97803</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89815</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90508</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.84404</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$70:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2140230872"/>
-        <c:axId val="-2141420776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2140230872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size of longer expression</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.132877634571379"/>
-              <c:y val="0.875513463156975"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="-2141420776"/>
-        <c:crossesAt val="0.5"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2141420776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00563944512788156"/>
-              <c:y val="0.266676941218722"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140230872"/>
+        <c:crossAx val="2118032968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1408,10 +785,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.138847862439015"/>
-          <c:h val="0.493162483375905"/>
+          <c:x val="0.349502509938819"/>
+          <c:y val="0.151001442445584"/>
+          <c:w val="0.138267877871314"/>
+          <c:h val="0.326055507985789"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1481,7 +858,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$36</c:f>
+              <c:f>'Sheet1 (2)'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1513,7 +890,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$37:$B$48</c:f>
+              <c:f>'Sheet1 (2)'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1524,34 +901,34 @@
                   <c:v>0.98737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97895</c:v>
+                  <c:v>0.91447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95129</c:v>
+                  <c:v>0.84336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92632</c:v>
+                  <c:v>0.78511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90579</c:v>
+                  <c:v>0.72774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89049</c:v>
+                  <c:v>0.71647</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85385</c:v>
+                  <c:v>0.65275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83025</c:v>
+                  <c:v>0.62963</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82276</c:v>
+                  <c:v>0.593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79322</c:v>
+                  <c:v>0.4983</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81346</c:v>
+                  <c:v>0.5198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,7 +940,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$36</c:f>
+              <c:f>'Sheet1 (2)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1591,45 +968,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$37:$C$48</c:f>
+              <c:f>'Sheet1 (2)'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.88462</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90657</c:v>
+                  <c:v>0.9798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83553</c:v>
+                  <c:v>0.95263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81089</c:v>
+                  <c:v>0.89016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79586</c:v>
+                  <c:v>0.82655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77374</c:v>
+                  <c:v>0.77448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7691</c:v>
+                  <c:v>0.73769</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72527</c:v>
+                  <c:v>0.66044</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70833</c:v>
+                  <c:v>0.63272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.663</c:v>
+                  <c:v>0.60613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6339</c:v>
+                  <c:v>0.57966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6513</c:v>
+                  <c:v>0.59327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,11 +1018,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$36</c:f>
+              <c:f>'Sheet1 (2)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d LSTM</c:v>
+                  <c:v>50d TreeLSTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1672,45 +1049,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$37:$D$48</c:f>
+              <c:f>'Sheet1 (2)'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.98718</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97222</c:v>
+                  <c:v>0.9899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96184</c:v>
+                  <c:v>0.95921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91786</c:v>
+                  <c:v>0.88921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86723</c:v>
+                  <c:v>0.83269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81009</c:v>
+                  <c:v>0.78338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78183</c:v>
+                  <c:v>0.7691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72527</c:v>
+                  <c:v>0.70659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65278</c:v>
+                  <c:v>0.66667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64551</c:v>
+                  <c:v>0.6652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57627</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51376</c:v>
+                  <c:v>0.5963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,11 +1099,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$36</c:f>
+              <c:f>'Sheet1 (2)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TreeLSTM</c:v>
+                  <c:v>50d LSTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1758,7 +1135,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$37:$E$48</c:f>
+              <c:f>'Sheet1 (2)'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1766,37 +1143,37 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99747</c:v>
+                  <c:v>0.99242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99605</c:v>
+                  <c:v>0.94605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98663</c:v>
+                  <c:v>0.77746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96777</c:v>
+                  <c:v>0.64927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94214</c:v>
+                  <c:v>0.54451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94058</c:v>
+                  <c:v>0.53141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90549</c:v>
+                  <c:v>0.4989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8858</c:v>
+                  <c:v>0.42901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8621</c:v>
+                  <c:v>0.4004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8474</c:v>
+                  <c:v>0.4711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8226</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,11 +1190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2130196520"/>
-        <c:axId val="-2132186360"/>
+        <c:axId val="2117502856"/>
+        <c:axId val="2117495432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130196520"/>
+        <c:axId val="2117502856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2132186360"/>
+        <c:crossAx val="2117495432"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1879,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132186360"/>
+        <c:axId val="2117495432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1918,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130196520"/>
+        <c:crossAx val="2117502856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1937,10 +1314,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.138267877871314"/>
-          <c:h val="0.326055507985789"/>
+          <c:x val="0.336878368529946"/>
+          <c:y val="0.151001508526477"/>
+          <c:w val="0.137560865586801"/>
+          <c:h val="0.323665033789576"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2010,9 +1387,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$52</c:f>
+              <c:f>'Sheet1 (2)'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNN</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2037,9 +1417,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:f>'Sheet1 (2)'!$B$20:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2047,47 +1427,38 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.99242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.96184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.91882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>0.88565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>0.8457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>0.81579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>0.76484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>0.73611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>0.7133</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>0.6779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$54:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>0.6758</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2098,9 +1469,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$52</c:f>
+              <c:f>'Sheet1 (2)'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNTN</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2121,9 +1495,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:f>'Sheet1 (2)'!$C$20:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2131,47 +1505,38 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.98232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.96447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.91691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>0.87951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>0.83754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>0.8107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>0.76264</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>0.73611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>0.7396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>0.6711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$54:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>0.6911</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2182,9 +1547,12 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$52</c:f>
+              <c:f>'Sheet1 (2)'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeLSTM</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2208,9 +1576,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
+              <c:f>'Sheet1 (2)'!$D$20:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2218,47 +1586,38 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.98158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.95415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>0.91558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>0.86424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>0.85314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>0.81648</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>0.75154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>0.78993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>0.71525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$54:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>0.72171</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2269,7 +1628,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$1</c:f>
+              <c:f>'Sheet1 (2)'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2281,72 +1640,31 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$54:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$54:$E$65</c:f>
+              <c:f>'Sheet1 (2)'!$E$20:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2365,11 +1683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2140521864"/>
-        <c:axId val="-2130741480"/>
+        <c:axId val="2117455880"/>
+        <c:axId val="2117448296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2140521864"/>
+        <c:axId val="2117455880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +1741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2130741480"/>
+        <c:crossAx val="2117448296"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +1749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130741480"/>
+        <c:axId val="2117448296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2470,7 +1788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140521864"/>
+        <c:crossAx val="2117455880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2485,18 +1803,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.138847862439015"/>
-          <c:h val="0.493162483375905"/>
+          <c:x val="0.336878368529946"/>
+          <c:y val="0.151001508526477"/>
+          <c:w val="0.137560865586801"/>
+          <c:h val="0.323665033789576"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2566,9 +1880,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$68</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNN</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2593,9 +1910,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2603,47 +1920,38 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.99242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.95132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.86342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>0.79125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>0.74852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>0.6944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>0.67253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>0.61883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>0.55799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>0.56949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$70:$B$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>0.50459</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2654,9 +1962,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$68</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d TreeRNTN</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2677,9 +1988,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2687,47 +1998,38 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.98485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.97895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.93123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>0.89025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>0.86128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>0.8073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>0.78242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>0.75772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>0.75055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>0.70508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$70:$C$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>0.66667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2738,9 +2040,12 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$68</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d LSTM</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2764,145 +2069,48 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.9359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.98485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>0.93684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>0.75167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>0.65541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>0.57122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>0.50764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>0.47253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>0.45988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>0.4267</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>0.4203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$70:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$70:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$70:$E$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                  <c:v>0.3639</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2918,11 +2126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146913464"/>
-        <c:axId val="-2139588152"/>
+        <c:axId val="2117394296"/>
+        <c:axId val="2117386776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146913464"/>
+        <c:axId val="2117394296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +2184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2139588152"/>
+        <c:crossAx val="2117386776"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2984,7 +2192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139588152"/>
+        <c:axId val="2117386776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3023,7 +2231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146913464"/>
+        <c:crossAx val="2117394296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3036,20 +2244,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.138847862439015"/>
-          <c:h val="0.493162483375905"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3115,7 +2309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$36</c:f>
+              <c:f>Sheet1!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3147,45 +2341,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$37:$B$48</c:f>
+              <c:f>Sheet1!$B$20:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.98718</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98737</c:v>
+                  <c:v>0.9899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97895</c:v>
+                  <c:v>0.98947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95129</c:v>
+                  <c:v>0.9618</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92632</c:v>
+                  <c:v>0.9386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90579</c:v>
+                  <c:v>0.91098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89049</c:v>
+                  <c:v>0.8871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85385</c:v>
+                  <c:v>0.87363</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83025</c:v>
+                  <c:v>0.80556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82276</c:v>
+                  <c:v>0.7768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79322</c:v>
+                  <c:v>0.7728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81346</c:v>
+                  <c:v>0.7461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +2391,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$36</c:f>
+              <c:f>Sheet1!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3225,45 +2419,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$37:$C$48</c:f>
+              <c:f>Sheet1!$C$20:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.88462</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90657</c:v>
+                  <c:v>0.99242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83553</c:v>
+                  <c:v>0.98684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81089</c:v>
+                  <c:v>0.96084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79586</c:v>
+                  <c:v>0.94781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77374</c:v>
+                  <c:v>0.91395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7691</c:v>
+                  <c:v>0.90323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72527</c:v>
+                  <c:v>0.87033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70833</c:v>
+                  <c:v>0.86883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.663</c:v>
+                  <c:v>0.84683</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6339</c:v>
+                  <c:v>0.80339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6513</c:v>
+                  <c:v>0.78899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,7 +2469,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$36</c:f>
+              <c:f>Sheet1!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3306,7 +2500,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$37:$D$48</c:f>
+              <c:f>Sheet1!$D$20:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3314,123 +2508,37 @@
                   <c:v>0.98718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97222</c:v>
+                  <c:v>0.98485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96184</c:v>
+                  <c:v>0.93947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91786</c:v>
+                  <c:v>0.87775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86723</c:v>
+                  <c:v>0.76132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81009</c:v>
+                  <c:v>0.68694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78183</c:v>
+                  <c:v>0.60357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72527</c:v>
+                  <c:v>0.55495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65278</c:v>
+                  <c:v>0.50463</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64551</c:v>
+                  <c:v>0.44639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57627</c:v>
+                  <c:v>0.48814</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51376</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TreeLSTM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$37:$E$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94214</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94058</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90549</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8858</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8621</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8474</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8226</c:v>
+                  <c:v>0.43119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,11 +2555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129889288"/>
-        <c:axId val="-2132526824"/>
+        <c:axId val="2117350712"/>
+        <c:axId val="2117343208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129889288"/>
+        <c:axId val="2117350712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3505,7 +2613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2132526824"/>
+        <c:crossAx val="2117343208"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3513,7 +2621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132526824"/>
+        <c:axId val="2117343208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3552,7 +2660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129889288"/>
+        <c:crossAx val="2117350712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3565,20 +2673,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.137560865586801"/>
-          <c:h val="0.323665033789576"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3644,7 +2738,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3676,7 +2770,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$37:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3684,37 +2778,37 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99242</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95132</c:v>
+                  <c:v>0.99605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86342</c:v>
+                  <c:v>0.97803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79125</c:v>
+                  <c:v>0.97774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74852</c:v>
+                  <c:v>0.97404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6944</c:v>
+                  <c:v>0.95586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67253</c:v>
+                  <c:v>0.94396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61883</c:v>
+                  <c:v>0.89815</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55799</c:v>
+                  <c:v>0.88184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56949</c:v>
+                  <c:v>0.90508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50459</c:v>
+                  <c:v>0.84404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,7 +2820,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3754,45 +2848,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$37:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.98718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98485</c:v>
+                  <c:v>0.99747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97895</c:v>
+                  <c:v>0.98289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93123</c:v>
+                  <c:v>0.96562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89025</c:v>
+                  <c:v>0.95088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86128</c:v>
+                  <c:v>0.94436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8073</c:v>
+                  <c:v>0.91851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78242</c:v>
+                  <c:v>0.8967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75772</c:v>
+                  <c:v>0.88272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75055</c:v>
+                  <c:v>0.884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70508</c:v>
+                  <c:v>0.861</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66667</c:v>
+                  <c:v>0.8623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,7 +2898,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3835,45 +2929,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>Sheet1!$D$37:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.9359</c:v>
+                  <c:v>0.97436</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93684</c:v>
+                  <c:v>0.94868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75167</c:v>
+                  <c:v>0.91213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65541</c:v>
+                  <c:v>0.87337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57122</c:v>
+                  <c:v>0.82493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50764</c:v>
+                  <c:v>0.78268</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47253</c:v>
+                  <c:v>0.73077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45988</c:v>
+                  <c:v>0.66821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4267</c:v>
+                  <c:v>0.6674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4203</c:v>
+                  <c:v>0.61695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3639</c:v>
+                  <c:v>0.57187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3890,11 +2984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147296424"/>
-        <c:axId val="-2147303736"/>
+        <c:axId val="2116158296"/>
+        <c:axId val="2116150776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147296424"/>
+        <c:axId val="2116158296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,7 +3042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2147303736"/>
+        <c:crossAx val="2116150776"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3956,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147303736"/>
+        <c:axId val="2116150776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3995,7 +3089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147296424"/>
+        <c:crossAx val="2116158296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4008,6 +3102,20 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.138847862439015"/>
+          <c:h val="0.493162483375905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4073,11 +3181,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>Sheet1!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d TreeRNN</c:v>
+                  <c:v>50d LSTM 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4103,9 +3211,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$31</c:f>
+              <c:f>Sheet1!$A$54:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4113,37 +3221,82 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9899</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98947</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9618</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9386</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91098</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8871</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87363</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80556</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7768</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7728</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7461</c:v>
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47253</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,11 +3308,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>Sheet1!$C$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d TreeRNTN</c:v>
+                  <c:v>50d LSTM 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4181,9 +3334,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$31</c:f>
+              <c:f>Sheet1!$A$54:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4191,37 +3344,82 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99242</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98684</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96084</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94781</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91395</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90323</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87033</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86883</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84683</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80339</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78899</c:v>
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$54:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.98718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4233,11 +3431,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$19</c:f>
+              <c:f>Sheet1!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d LSTM</c:v>
+                  <c:v>50d LSTM 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4262,48 +3460,184 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$31</c:f>
+              <c:f>Sheet1!$A$54:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.98718</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$54:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.97436</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93947</c:v>
+                  <c:v>0.94868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87775</c:v>
+                  <c:v>0.91213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76132</c:v>
+                  <c:v>0.87337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68694</c:v>
+                  <c:v>0.82493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60357</c:v>
+                  <c:v>0.78268</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55495</c:v>
+                  <c:v>0.73077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50463</c:v>
+                  <c:v>0.66821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44639</c:v>
+                  <c:v>0.6674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48814</c:v>
+                  <c:v>0.61695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43119</c:v>
-                </c:pt>
+                  <c:v>0.57187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50d LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$54:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$54:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4319,11 +3653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143946808"/>
-        <c:axId val="-2143565992"/>
+        <c:axId val="2117318472"/>
+        <c:axId val="2117310440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143946808"/>
+        <c:axId val="2117318472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,7 +3711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2143565992"/>
+        <c:crossAx val="2117310440"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4385,7 +3719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143565992"/>
+        <c:axId val="2117310440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4424,7 +3758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143946808"/>
+        <c:crossAx val="2117318472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4437,6 +3771,24 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.318664282646701"/>
+          <c:y val="0.151001509605057"/>
+          <c:w val="0.138847862439015"/>
+          <c:h val="0.493162483375905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4502,11 +3854,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$36</c:f>
+              <c:f>Sheet1!$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d TreeRNN</c:v>
+                  <c:v>50d TreeRNN 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4532,9 +3884,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$48</c:f>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4542,37 +3894,82 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99242</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99605</c:v>
+                  <c:v>0.95132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97803</c:v>
+                  <c:v>0.86342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97774</c:v>
+                  <c:v>0.79125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97404</c:v>
+                  <c:v>0.74852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95586</c:v>
+                  <c:v>0.6944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94396</c:v>
+                  <c:v>0.67253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89815</c:v>
+                  <c:v>0.61883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88184</c:v>
+                  <c:v>0.55799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90508</c:v>
+                  <c:v>0.56949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84404</c:v>
+                  <c:v>0.50459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,11 +3981,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$36</c:f>
+              <c:f>Sheet1!$C$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d TreeRNTN</c:v>
+                  <c:v>50d RNN 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4610,47 +4007,92 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$37:$C$48</c:f>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.98718</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99747</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98289</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96562</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95088</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94436</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91851</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8967</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88272</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.884</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.861</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8623</c:v>
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4662,11 +4104,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$36</c:f>
+              <c:f>Sheet1!$D$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50d LSTM</c:v>
+                  <c:v>50d RNN 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4691,48 +4133,181 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$D$48</c:f>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.97436</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98485</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94868</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91213</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87337</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82493</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78268</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73077</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66821</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6674</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61695</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57187</c:v>
-                </c:pt>
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$70:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$70:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4748,11 +4323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101370952"/>
-        <c:axId val="2101590584"/>
+        <c:axId val="2071268296"/>
+        <c:axId val="2071276440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101370952"/>
+        <c:axId val="2071268296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4806,7 +4381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2101590584"/>
+        <c:crossAx val="2071276440"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4814,7 +4389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101590584"/>
+        <c:axId val="2071276440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4853,7 +4428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101370952"/>
+        <c:crossAx val="2071268296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4910,697 +4485,24 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0675957183663948"/>
-          <c:y val="0.087248322147651"/>
-          <c:w val="0.252269773169278"/>
-          <c:h val="0.663652340039264"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d LSTM 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="3366FF"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="3366FF"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$54:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$54:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.9359</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93684</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75167</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65541</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57122</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47253</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4267</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d LSTM 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:miter lim="800000"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$54:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$54:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.98718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68694</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60357</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55495</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44639</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.48814</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43119</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d LSTM 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="008000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$54:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$54:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.97436</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91213</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82493</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78268</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73077</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66821</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6674</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.61695</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.57187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50d LSTM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$54:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$54:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2113780744"/>
-        <c:axId val="2113887704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2113780744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size of longer expression</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.132877634571379"/>
-              <c:y val="0.875513463156975"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="2113887704"/>
-        <c:crossesAt val="0.5"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2113887704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00563944512788156"/>
-              <c:y val="0.266676941218722"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113780744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.318664282646701"/>
-          <c:y val="0.151001509605057"/>
-          <c:w val="0.138847862439015"/>
-          <c:h val="0.493162483375905"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:latin typeface="Times"/>
-          <a:cs typeface="Times"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>465666</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>143934</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>445347</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>817881</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5619,20 +4521,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>474981</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:colOff>809414</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5652,19 +4554,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>462281</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>809414</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5676,70 +4578,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>805181</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>263314</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>194733</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6233,10 +5071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6245,7 +5083,7 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6256,16 +5094,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16">
+    <row r="2" spans="1:16" ht="16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6281,12 +5119,12 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="16">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6297,17 +5135,17 @@
         <v>0.9798</v>
       </c>
       <c r="D3">
+        <v>0.9899</v>
+      </c>
+      <c r="E3">
         <v>0.99241999999999997</v>
       </c>
-      <c r="E3">
-        <v>0.9899</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="16">
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6318,17 +5156,17 @@
         <v>0.95262999999999998</v>
       </c>
       <c r="D4">
+        <v>0.95921000000000001</v>
+      </c>
+      <c r="E4">
         <v>0.94604999999999995</v>
       </c>
-      <c r="E4">
-        <v>0.95921000000000001</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="16">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6339,17 +5177,17 @@
         <v>0.89015999999999995</v>
       </c>
       <c r="D5">
+        <v>0.88920999999999994</v>
+      </c>
+      <c r="E5">
         <v>0.77746000000000004</v>
       </c>
-      <c r="E5">
-        <v>0.88920999999999994</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="16">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6360,17 +5198,17 @@
         <v>0.82655000000000001</v>
       </c>
       <c r="D6">
+        <v>0.83269000000000004</v>
+      </c>
+      <c r="E6">
         <v>0.64927000000000001</v>
       </c>
-      <c r="E6">
-        <v>0.83269000000000004</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="16">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6381,17 +5219,17 @@
         <v>0.77447999999999995</v>
       </c>
       <c r="D7">
+        <v>0.78337999999999997</v>
+      </c>
+      <c r="E7">
         <v>0.54451000000000005</v>
       </c>
-      <c r="E7">
-        <v>0.78337999999999997</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="16">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6402,17 +5240,17 @@
         <v>0.73768999999999996</v>
       </c>
       <c r="D8">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="E8">
         <v>0.53141000000000005</v>
       </c>
-      <c r="E8">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="16">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6423,17 +5261,17 @@
         <v>0.66044000000000003</v>
       </c>
       <c r="D9">
+        <v>0.70659000000000005</v>
+      </c>
+      <c r="E9">
         <v>0.49890000000000001</v>
       </c>
-      <c r="E9">
-        <v>0.70659000000000005</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="16">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="16">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6444,17 +5282,17 @@
         <v>0.63271999999999995</v>
       </c>
       <c r="D10">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="E10">
         <v>0.42901</v>
       </c>
-      <c r="E10">
-        <v>0.66666999999999998</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="16">
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6465,17 +5303,17 @@
         <v>0.60612999999999995</v>
       </c>
       <c r="D11">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="E11">
         <v>0.40039999999999998</v>
       </c>
-      <c r="E11">
-        <v>0.66520000000000001</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="16">
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="16">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6486,17 +5324,17 @@
         <v>0.57965999999999995</v>
       </c>
       <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
         <v>0.47110000000000002</v>
       </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="16">
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="16">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6507,19 +5345,19 @@
         <v>0.59326999999999996</v>
       </c>
       <c r="D13">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="E13">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E13">
-        <v>0.59630000000000005</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="16">
-      <c r="H14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="16">
+      <c r="I14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
@@ -6532,10 +5370,10 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
@@ -6548,7 +5386,7 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
@@ -6562,7 +5400,7 @@
       <c r="C21" s="2">
         <v>0.98231999999999997</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>1</v>
       </c>
     </row>
@@ -6576,7 +5414,7 @@
       <c r="C22" s="2">
         <v>0.96447000000000005</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>0.98158000000000001</v>
       </c>
     </row>
@@ -6590,7 +5428,7 @@
       <c r="C23" s="2">
         <v>0.91691</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>0.95415000000000005</v>
       </c>
     </row>
@@ -6604,7 +5442,7 @@
       <c r="C24" s="2">
         <v>0.87951000000000001</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>0.91557999999999995</v>
       </c>
     </row>
@@ -6618,7 +5456,7 @@
       <c r="C25" s="2">
         <v>0.83753999999999995</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>0.86424000000000001</v>
       </c>
     </row>
@@ -6632,7 +5470,7 @@
       <c r="C26" s="2">
         <v>0.81069999999999998</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>0.85314000000000001</v>
       </c>
     </row>
@@ -6646,7 +5484,7 @@
       <c r="C27" s="2">
         <v>0.76263999999999998</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>0.81647999999999998</v>
       </c>
     </row>
@@ -6660,7 +5498,7 @@
       <c r="C28" s="2">
         <v>0.73611000000000004</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>0.75153999999999999</v>
       </c>
     </row>
@@ -6674,7 +5512,7 @@
       <c r="C29" s="2">
         <v>0.73960000000000004</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <v>0.78993000000000002</v>
       </c>
     </row>
@@ -6688,7 +5526,7 @@
       <c r="C30" s="2">
         <v>0.67110000000000003</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <v>0.71525000000000005</v>
       </c>
     </row>
@@ -6702,7 +5540,7 @@
       <c r="C31">
         <v>0.69110000000000005</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>0.72170999999999996</v>
       </c>
     </row>
@@ -6717,10 +5555,10 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
         <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16">
@@ -6734,10 +5572,10 @@
         <v>0.88461999999999996</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>0.98717999999999995</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16">
@@ -6751,10 +5589,10 @@
         <v>0.90656999999999999</v>
       </c>
       <c r="D38">
+        <v>0.99746999999999997</v>
+      </c>
+      <c r="E38">
         <v>0.97221999999999997</v>
-      </c>
-      <c r="E38">
-        <v>0.99746999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16">
@@ -6768,10 +5606,10 @@
         <v>0.83552999999999999</v>
       </c>
       <c r="D39">
+        <v>0.99604999999999999</v>
+      </c>
+      <c r="E39">
         <v>0.96184000000000003</v>
-      </c>
-      <c r="E39">
-        <v>0.99604999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16">
@@ -6785,10 +5623,10 @@
         <v>0.81089</v>
       </c>
       <c r="D40">
+        <v>0.98663000000000001</v>
+      </c>
+      <c r="E40">
         <v>0.91786000000000001</v>
-      </c>
-      <c r="E40">
-        <v>0.98663000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16">
@@ -6802,10 +5640,10 @@
         <v>0.79586000000000001</v>
       </c>
       <c r="D41">
+        <v>0.96777000000000002</v>
+      </c>
+      <c r="E41">
         <v>0.86722999999999995</v>
-      </c>
-      <c r="E41">
-        <v>0.96777000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16">
@@ -6819,10 +5657,10 @@
         <v>0.77373999999999998</v>
       </c>
       <c r="D42">
+        <v>0.94213999999999998</v>
+      </c>
+      <c r="E42">
         <v>0.81008999999999998</v>
-      </c>
-      <c r="E42">
-        <v>0.94213999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16">
@@ -6836,10 +5674,10 @@
         <v>0.76910000000000001</v>
       </c>
       <c r="D43">
+        <v>0.94057999999999997</v>
+      </c>
+      <c r="E43">
         <v>0.78183000000000002</v>
-      </c>
-      <c r="E43">
-        <v>0.94057999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16">
@@ -6853,10 +5691,10 @@
         <v>0.72526999999999997</v>
       </c>
       <c r="D44">
+        <v>0.90549000000000002</v>
+      </c>
+      <c r="E44">
         <v>0.72526999999999997</v>
-      </c>
-      <c r="E44">
-        <v>0.90549000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16">
@@ -6870,10 +5708,10 @@
         <v>0.70833000000000002</v>
       </c>
       <c r="D45">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="E45">
         <v>0.65278000000000003</v>
-      </c>
-      <c r="E45">
-        <v>0.88580000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16">
@@ -6887,10 +5725,10 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="D46">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="E46">
         <v>0.64551000000000003</v>
-      </c>
-      <c r="E46">
-        <v>0.86209999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16">
@@ -6904,10 +5742,10 @@
         <v>0.63390000000000002</v>
       </c>
       <c r="D47">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="E47">
         <v>0.57626999999999995</v>
-      </c>
-      <c r="E47">
-        <v>0.84740000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16">
@@ -6921,167 +5759,71 @@
         <v>0.65129999999999999</v>
       </c>
       <c r="D48">
+        <v>0.8226</v>
+      </c>
+      <c r="E48">
         <v>0.51375999999999999</v>
       </c>
-      <c r="E48">
-        <v>0.8226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16">
-      <c r="A70">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="70" spans="2:5" ht="16">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" ht="16">
-      <c r="A71">
-        <v>2</v>
-      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" ht="16">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" ht="16">
-      <c r="A72">
-        <v>3</v>
-      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5" ht="16">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" ht="16">
-      <c r="A73">
-        <v>4</v>
-      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5" ht="16">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" ht="16">
-      <c r="A74">
-        <v>5</v>
-      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5" ht="16">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" ht="16">
-      <c r="A75">
-        <v>6</v>
-      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" ht="16">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" ht="16">
-      <c r="A76">
-        <v>7</v>
-      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5" ht="16">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" ht="16">
-      <c r="A77">
-        <v>8</v>
-      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5" ht="16">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" ht="16">
-      <c r="A78">
-        <v>9</v>
-      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" ht="16">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" ht="16">
-      <c r="A79">
-        <v>10</v>
-      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5" ht="16">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" ht="16">
-      <c r="A80">
-        <v>11</v>
-      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5" ht="16">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" ht="16">
-      <c r="A81">
-        <v>12</v>
-      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5" ht="16">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
